--- a/sample_data/riders_rough.xlsx
+++ b/sample_data/riders_rough.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Projects\warehouse-delivery-optimization\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC5E63-2B95-4D8E-8741-EB9E35A91777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5259DC-B98A-4836-A197-2DA758181126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>91-3463465</t>
+  </si>
+  <si>
+    <t>Rider Name 4</t>
+  </si>
+  <si>
+    <t>Rider Name 5</t>
+  </si>
+  <si>
+    <t>91-6785444</t>
+  </si>
+  <si>
+    <t>91-5474755</t>
   </si>
 </sst>
 </file>
@@ -427,14 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,7 +473,7 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -474,7 +487,7 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -488,10 +501,38 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
